--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_11.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="楼层" sheetId="28" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,17 @@
   <si>
     <t>不满足每5层有2㎡固定窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风口标高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为排烟窗</t>
   </si>
 </sst>
 </file>
@@ -801,12 +812,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="11.26953125" customWidth="1"/>
+    <col min="3" max="4" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -820,7 +831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -834,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -849,7 +860,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -864,7 +875,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -879,7 +890,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -894,7 +905,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -909,7 +920,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -924,7 +935,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -939,7 +950,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -954,7 +965,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -969,7 +980,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -984,7 +995,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -999,7 +1010,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1014,7 +1025,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1029,7 +1040,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1044,7 +1055,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1083,19 +1094,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="A54:D59"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1108,8 +1119,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1122,8 +1136,11 @@
       <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1136,8 +1153,11 @@
       <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1178,8 +1204,11 @@
       <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1192,8 +1221,11 @@
       <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1206,8 +1238,11 @@
       <c r="D8" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1220,8 +1255,11 @@
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1234,8 +1272,11 @@
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1248,8 +1289,11 @@
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1262,8 +1306,11 @@
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1276,8 +1323,11 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1290,8 +1340,11 @@
       <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1304,8 +1357,11 @@
       <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1318,8 +1374,11 @@
       <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1332,8 +1391,11 @@
       <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1346,8 +1408,11 @@
       <c r="D18" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1360,8 +1425,11 @@
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1374,8 +1442,11 @@
       <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1388,8 +1459,11 @@
       <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1402,8 +1476,11 @@
       <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1416,8 +1493,11 @@
       <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1430,8 +1510,11 @@
       <c r="D24" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1444,8 +1527,11 @@
       <c r="D25" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1458,8 +1544,11 @@
       <c r="D26" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1472,8 +1561,11 @@
       <c r="D27" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1486,8 +1578,11 @@
       <c r="D28" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1500,8 +1595,11 @@
       <c r="D29" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1514,8 +1612,11 @@
       <c r="D30" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1526,8 +1627,11 @@
         <v>1</v>
       </c>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1538,8 +1642,11 @@
         <v>3</v>
       </c>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1550,8 +1657,11 @@
         <v>6</v>
       </c>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1562,8 +1672,11 @@
         <v>9</v>
       </c>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1574,8 +1687,11 @@
         <v>12</v>
       </c>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1586,8 +1702,11 @@
         <v>15</v>
       </c>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1598,8 +1717,11 @@
         <v>17</v>
       </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1610,8 +1732,11 @@
         <v>1</v>
       </c>
       <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1622,8 +1747,11 @@
         <v>3</v>
       </c>
       <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1634,8 +1762,11 @@
         <v>6</v>
       </c>
       <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1646,8 +1777,11 @@
         <v>9</v>
       </c>
       <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1658,8 +1792,11 @@
         <v>12</v>
       </c>
       <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1670,8 +1807,11 @@
         <v>15</v>
       </c>
       <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1682,8 +1822,11 @@
         <v>17</v>
       </c>
       <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1696,8 +1839,11 @@
       <c r="D45" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1710,8 +1856,11 @@
       <c r="D46" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1724,8 +1873,11 @@
       <c r="D47" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1738,8 +1890,11 @@
       <c r="D48" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1752,8 +1907,11 @@
       <c r="D49" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1766,8 +1924,11 @@
       <c r="D50" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1780,8 +1941,11 @@
       <c r="D51" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1794,8 +1958,11 @@
       <c r="D52" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1808,8 +1975,11 @@
       <c r="D53" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1822,8 +1992,11 @@
       <c r="D54" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1836,8 +2009,11 @@
       <c r="D55" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1850,8 +2026,11 @@
       <c r="D56" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1864,8 +2043,11 @@
       <c r="D57" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1878,8 +2060,11 @@
       <c r="D58" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1891,6 +2076,9 @@
       </c>
       <c r="D59" s="3">
         <v>17</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1904,23 +2092,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
     <col min="10" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="55.36328125" customWidth="1"/>
+    <col min="14" max="14" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1964,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2008,7 +2196,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2052,7 +2240,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2111,19 +2299,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
     <col min="10" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="55.36328125" customWidth="1"/>
+    <col min="14" max="14" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2167,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2208,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2249,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2290,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2340,15 +2528,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -2359,135 +2552,191 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D18" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2498,19 +2747,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="5" width="11.6328125" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -2526,8 +2775,11 @@
       <c r="E1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2543,8 +2795,11 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2560,8 +2815,11 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2577,8 +2835,11 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2594,8 +2855,11 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2611,8 +2875,11 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2628,8 +2895,11 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2645,8 +2915,11 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2662,8 +2935,11 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2679,8 +2955,11 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2696,8 +2975,11 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2713,8 +2995,11 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2730,8 +3015,11 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2747,8 +3035,11 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2763,6 +3054,9 @@
       </c>
       <c r="E15" t="b">
         <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2779,12 +3073,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2792,7 +3086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2800,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2808,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>

--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_11.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_3_11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="楼层" sheetId="28" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="104">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,26 @@
   </si>
   <si>
     <t>是否为排烟窗</t>
+  </si>
+  <si>
+    <t>是否为室外风口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -812,12 +832,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.25" customWidth="1"/>
+    <col min="3" max="4" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -831,7 +851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -845,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -860,7 +880,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -875,7 +895,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -890,7 +910,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -905,7 +925,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -920,7 +940,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -935,7 +955,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -950,7 +970,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -965,7 +985,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -980,7 +1000,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -995,7 +1015,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1010,7 +1030,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1025,7 +1045,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1040,7 +1060,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1055,7 +1075,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1070,7 +1090,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1094,19 +1114,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E59"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1122,8 +1143,14 @@
       <c r="E1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1139,8 +1166,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1156,8 +1189,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1173,8 +1212,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1190,8 +1235,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1207,8 +1258,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1224,8 +1281,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1241,8 +1304,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1258,8 +1327,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1275,8 +1350,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1292,8 +1373,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1309,8 +1396,14 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1326,8 +1419,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1343,8 +1442,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1360,8 +1465,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1377,8 +1488,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1394,8 +1511,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1411,8 +1534,14 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1428,8 +1557,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1445,8 +1580,14 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1462,8 +1603,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1479,8 +1626,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1496,8 +1649,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1513,8 +1672,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1530,8 +1695,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1547,8 +1718,14 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1564,8 +1741,14 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1581,8 +1764,14 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1598,8 +1787,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1615,8 +1810,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1630,8 +1831,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1645,8 +1852,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1660,8 +1873,14 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1675,8 +1894,14 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1690,8 +1915,14 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1705,8 +1936,14 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1720,8 +1957,14 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1735,8 +1978,14 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1750,8 +1999,14 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1765,8 +2020,14 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1780,8 +2041,14 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1795,8 +2062,14 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1810,8 +2083,14 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1825,8 +2104,14 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1842,8 +2127,14 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1859,8 +2150,14 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1876,8 +2173,14 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1893,8 +2196,14 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1910,8 +2219,14 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1927,8 +2242,14 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1944,8 +2265,14 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1961,8 +2288,14 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1978,8 +2311,14 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1995,8 +2334,14 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2012,8 +2357,14 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2029,8 +2380,14 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2046,8 +2403,14 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2063,8 +2426,14 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2079,6 +2448,12 @@
       </c>
       <c r="E59">
         <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -2090,25 +2465,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="55.375" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="10" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2146,13 +2521,16 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2189,14 +2567,17 @@
       <c r="L2">
         <v>5</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2233,14 +2614,17 @@
       <c r="L3">
         <v>5</v>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2277,10 +2661,13 @@
       <c r="L4">
         <v>5</v>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2293,25 +2680,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="55.375" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="10" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2346,16 +2733,19 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2390,13 +2780,16 @@
         <v>1</v>
       </c>
       <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2431,13 +2824,16 @@
         <v>1</v>
       </c>
       <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2472,13 +2868,16 @@
         <v>1</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2513,9 +2912,12 @@
         <v>1</v>
       </c>
       <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="M5" t="b">
+      <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2528,20 +2930,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -2557,8 +2959,11 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2568,8 +2973,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2579,8 +2987,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2590,8 +3001,11 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2601,8 +3015,11 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2612,8 +3029,11 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2623,8 +3043,11 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2634,8 +3057,11 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2645,8 +3071,11 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2656,8 +3085,11 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2667,8 +3099,11 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2678,8 +3113,11 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2689,8 +3127,11 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2700,8 +3141,11 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2711,8 +3155,11 @@
       <c r="D15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2722,8 +3169,11 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2733,10 +3183,8 @@
       <c r="D17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D18" t="b">
-        <v>1</v>
+      <c r="F17">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2749,17 +3197,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="5" width="11.625" customWidth="1"/>
+    <col min="2" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -2779,7 +3227,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2799,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2819,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2839,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2859,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2879,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2899,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2919,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2939,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2959,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2979,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2999,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3019,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3039,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3073,12 +3521,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -3086,7 +3534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3094,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3102,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
